--- a/FINAL Use Case Detailed Descriptions Ethan Dowell.xlsx
+++ b/FINAL Use Case Detailed Descriptions Ethan Dowell.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -254,13 +255,13 @@
     <t>A new member is added to the forum.</t>
   </si>
   <si>
-    <t>Click, make new account.</t>
+    <t>Click ”make new account”</t>
   </si>
   <si>
     <t>Click on “Make An Account” button</t>
   </si>
   <si>
-    <t>Input personal information needed for the account.</t>
+    <t>Input personal information needed for the account such as username, email and password.</t>
   </si>
   <si>
     <t>Click on “Create Account” button</t>
@@ -273,6 +274,24 @@
   </si>
   <si>
     <t>2.1 Non-Member decides to click cancel.</t>
+  </si>
+  <si>
+    <t>Sheet5</t>
+  </si>
+  <si>
+    <t>Editing Settings/Account</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Settings, such as blocklist or alerts, or account details need changing.</t>
+  </si>
+  <si>
+    <t>Setting and account details accurate.</t>
+  </si>
+  <si>
+    <t>Click button “Edit Settings”</t>
   </si>
 </sst>
 </file>
@@ -321,7 +340,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +359,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -351,16 +376,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -370,7 +395,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -392,13 +417,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -430,6 +458,7 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -581,9 +610,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -663,7 +692,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -691,10 +720,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -950,9 +979,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1240,7 +1269,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1268,10 +1297,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1613,6 +1642,22 @@
         <v>65</v>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -1622,6 +1667,7 @@
     <hyperlink ref="D12" location="'Sheet2'!R1C1" tooltip="" display="Sheet2"/>
     <hyperlink ref="D14" location="'Sheet3'!R1C1" tooltip="" display="Sheet3"/>
     <hyperlink ref="D16" location="'Sheet4'!R1C1" tooltip="" display="Sheet4"/>
+    <hyperlink ref="D18" location="'Sheet5'!R1C1" tooltip="" display="Sheet5"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -1634,7 +1680,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.6016" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.6719" style="6" customWidth="1"/>
     <col min="2" max="2" width="69" style="6" customWidth="1"/>
     <col min="3" max="3" width="89.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="6" customWidth="1"/>
@@ -1879,9 +1925,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.7891" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.3984" style="10" customWidth="1"/>
-    <col min="3" max="3" width="90.9844" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.8516" style="10" customWidth="1"/>
+    <col min="2" max="2" width="73.3516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="91" style="10" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="10" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="10" customWidth="1"/>
   </cols>
@@ -2119,9 +2165,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.8203" style="11" customWidth="1"/>
-    <col min="2" max="2" width="69.6172" style="11" customWidth="1"/>
-    <col min="3" max="3" width="95.7109" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.8516" style="11" customWidth="1"/>
+    <col min="2" max="2" width="69.6719" style="11" customWidth="1"/>
+    <col min="3" max="3" width="95.6719" style="11" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="11" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="11" customWidth="1"/>
   </cols>
@@ -2367,9 +2413,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.8203" style="12" customWidth="1"/>
-    <col min="2" max="2" width="69.6172" style="12" customWidth="1"/>
-    <col min="3" max="3" width="95.7109" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.8516" style="12" customWidth="1"/>
+    <col min="2" max="2" width="69.6719" style="12" customWidth="1"/>
+    <col min="3" max="3" width="95.6719" style="12" customWidth="1"/>
     <col min="4" max="5" width="8.85156" style="12" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="12" customWidth="1"/>
   </cols>
@@ -2529,6 +2575,184 @@
       <c r="B15" t="s" s="7">
         <v>77</v>
       </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="22.8516" style="13" customWidth="1"/>
+    <col min="2" max="2" width="69.6719" style="13" customWidth="1"/>
+    <col min="3" max="3" width="95.6719" style="13" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="13" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
